--- a/03_accounts.xlsx
+++ b/03_accounts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzooco/Library/Mobile Documents/com~apple~CloudDocs/Documents/SUBSIDIARIES/1.NEW/CIMPLIFY/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A04326-9CDE-4142-84AA-CCC5F12311FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7B37F7-C274-8047-A2C4-1687A37E6188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{DB6BAC22-E6D7-A34A-905A-FAF96ADB513D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$127</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="153">
   <si>
     <t>Code</t>
   </si>
@@ -434,18 +434,6 @@
     <t>5029 Bali 10Units</t>
   </si>
   <si>
-    <t>4127 Amazon Luxuxry III</t>
-  </si>
-  <si>
-    <t>4128 Seychelles I</t>
-  </si>
-  <si>
-    <t>4129 Bali VIII</t>
-  </si>
-  <si>
-    <t>4130 Bali 10Units</t>
-  </si>
-  <si>
     <t>6016 Electricity Bill (AEDC)</t>
   </si>
   <si>
@@ -480,6 +468,36 @@
   </si>
   <si>
     <t>6020 Transportation</t>
+  </si>
+  <si>
+    <t>5030 Amazon PR5</t>
+  </si>
+  <si>
+    <t>5031 Naf Valley</t>
+  </si>
+  <si>
+    <t>5032 Seychelles II</t>
+  </si>
+  <si>
+    <t>4127 Amazon Luxuxry III Revenue</t>
+  </si>
+  <si>
+    <t>4128 Seychelles I Revenue</t>
+  </si>
+  <si>
+    <t>4129 Bali VIII Revenue</t>
+  </si>
+  <si>
+    <t>4130 Bali 10Units Revenue</t>
+  </si>
+  <si>
+    <t>4131 Bilaad Amazon PR5 Revenue</t>
+  </si>
+  <si>
+    <t>4132 Naf Valley Revenue</t>
+  </si>
+  <si>
+    <t>4133 Bilaad Seychelles II Revenue</t>
   </si>
 </sst>
 </file>
@@ -543,12 +561,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -883,17 +903,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C15661-7701-0541-8E04-1A0ED57798EA}">
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A2" sqref="A2:E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="2"/>
     <col min="2" max="2" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.83203125" style="2"/>
@@ -950,43 +970,43 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>1100</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>1001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -995,49 +1015,49 @@
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
@@ -1046,24 +1066,24 @@
         <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>4100</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>4101</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>27</v>
@@ -1071,7 +1091,7 @@
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1080,7 +1100,7 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>27</v>
@@ -1088,7 +1108,7 @@
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -1097,7 +1117,7 @@
         <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>27</v>
@@ -1105,7 +1125,7 @@
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>4104</v>
+        <v>4103</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -1114,7 +1134,7 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>27</v>
@@ -1122,7 +1142,7 @@
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>4105</v>
+        <v>4104</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
@@ -1131,7 +1151,7 @@
         <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>27</v>
@@ -1139,7 +1159,7 @@
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>4106</v>
+        <v>4105</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -1148,7 +1168,7 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>27</v>
@@ -1156,7 +1176,7 @@
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>4107</v>
+        <v>4106</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -1165,7 +1185,7 @@
         <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>27</v>
@@ -1173,7 +1193,7 @@
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>4108</v>
+        <v>4107</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -1182,7 +1202,7 @@
         <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>27</v>
@@ -1190,7 +1210,7 @@
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>4109</v>
+        <v>4108</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -1199,7 +1219,7 @@
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>27</v>
@@ -1207,7 +1227,7 @@
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>4110</v>
+        <v>4109</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -1216,7 +1236,7 @@
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>27</v>
@@ -1224,7 +1244,7 @@
     </row>
     <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>4111</v>
+        <v>4110</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -1233,7 +1253,7 @@
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>27</v>
@@ -1241,7 +1261,7 @@
     </row>
     <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>4112</v>
+        <v>4111</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
@@ -1250,7 +1270,7 @@
         <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>27</v>
@@ -1258,7 +1278,7 @@
     </row>
     <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>4113</v>
+        <v>4112</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -1267,7 +1287,7 @@
         <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>27</v>
@@ -1275,7 +1295,7 @@
     </row>
     <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>4114</v>
+        <v>4113</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -1284,7 +1304,7 @@
         <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>27</v>
@@ -1292,7 +1312,7 @@
     </row>
     <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>4115</v>
+        <v>4114</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -1301,7 +1321,7 @@
         <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>27</v>
@@ -1309,7 +1329,7 @@
     </row>
     <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>4116</v>
+        <v>4115</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -1318,7 +1338,7 @@
         <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>27</v>
@@ -1326,7 +1346,7 @@
     </row>
     <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>4117</v>
+        <v>4116</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
@@ -1335,7 +1355,7 @@
         <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>27</v>
@@ -1343,7 +1363,7 @@
     </row>
     <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>4118</v>
+        <v>4117</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
@@ -1352,7 +1372,7 @@
         <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>27</v>
@@ -1360,7 +1380,7 @@
     </row>
     <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>4119</v>
+        <v>4118</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -1369,7 +1389,7 @@
         <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>27</v>
@@ -1377,7 +1397,7 @@
     </row>
     <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>4120</v>
+        <v>4119</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
@@ -1386,7 +1406,7 @@
         <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>27</v>
@@ -1394,7 +1414,7 @@
     </row>
     <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>4121</v>
+        <v>4120</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
@@ -1403,7 +1423,7 @@
         <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>27</v>
@@ -1411,7 +1431,7 @@
     </row>
     <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>4122</v>
+        <v>4121</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
@@ -1420,7 +1440,7 @@
         <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>27</v>
@@ -1428,7 +1448,7 @@
     </row>
     <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>4123</v>
+        <v>4122</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
@@ -1437,7 +1457,7 @@
         <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>27</v>
@@ -1445,7 +1465,7 @@
     </row>
     <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>4124</v>
+        <v>4123</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
@@ -1454,7 +1474,7 @@
         <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>27</v>
@@ -1462,7 +1482,7 @@
     </row>
     <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>4125</v>
+        <v>4124</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
@@ -1471,7 +1491,7 @@
         <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>27</v>
@@ -1479,7 +1499,7 @@
     </row>
     <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>4126</v>
+        <v>4125</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
@@ -1488,7 +1508,7 @@
         <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>27</v>
@@ -1496,7 +1516,7 @@
     </row>
     <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>4127</v>
+        <v>4126</v>
       </c>
       <c r="B36" t="s">
         <v>23</v>
@@ -1505,7 +1525,7 @@
         <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>27</v>
@@ -1513,7 +1533,7 @@
     </row>
     <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>4128</v>
+        <v>4127</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
@@ -1522,7 +1542,7 @@
         <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>27</v>
@@ -1530,7 +1550,7 @@
     </row>
     <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>4129</v>
+        <v>4128</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
@@ -1539,7 +1559,7 @@
         <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>27</v>
@@ -1547,7 +1567,7 @@
     </row>
     <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>4130</v>
+        <v>4129</v>
       </c>
       <c r="B39" t="s">
         <v>23</v>
@@ -1556,7 +1576,7 @@
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>27</v>
@@ -1564,84 +1584,84 @@
     </row>
     <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>5001</v>
+        <v>4130</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>5001</v>
-      </c>
-      <c r="B41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>67</v>
+      <c r="A41" s="3">
+        <v>4131</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>5001</v>
-      </c>
-      <c r="B42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>67</v>
+      <c r="A42" s="3">
+        <v>4132</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>5002</v>
-      </c>
-      <c r="B43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>67</v>
+      <c r="A43" s="3">
+        <v>4133</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B44" t="s">
         <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>67</v>
@@ -1649,16 +1669,16 @@
     </row>
     <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>5003</v>
+        <v>5001</v>
       </c>
       <c r="B45" t="s">
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>67</v>
@@ -1666,7 +1686,7 @@
     </row>
     <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>5003</v>
+        <v>5001</v>
       </c>
       <c r="B46" t="s">
         <v>28</v>
@@ -1675,7 +1695,7 @@
         <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>67</v>
@@ -1683,16 +1703,16 @@
     </row>
     <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>5004</v>
+        <v>5002</v>
       </c>
       <c r="B47" t="s">
         <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>67</v>
@@ -1700,16 +1720,16 @@
     </row>
     <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>5004</v>
+        <v>5002</v>
       </c>
       <c r="B48" t="s">
         <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>67</v>
@@ -1717,16 +1737,16 @@
     </row>
     <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>5005</v>
+        <v>5003</v>
       </c>
       <c r="B49" t="s">
         <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D49" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>67</v>
@@ -1734,16 +1754,16 @@
     </row>
     <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>5005</v>
+        <v>5003</v>
       </c>
       <c r="B50" t="s">
         <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>67</v>
@@ -1751,16 +1771,16 @@
     </row>
     <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>5006</v>
+        <v>5004</v>
       </c>
       <c r="B51" t="s">
         <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D51" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>67</v>
@@ -1768,16 +1788,16 @@
     </row>
     <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>5006</v>
+        <v>5004</v>
       </c>
       <c r="B52" t="s">
         <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>67</v>
@@ -1785,16 +1805,16 @@
     </row>
     <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>5007</v>
+        <v>5005</v>
       </c>
       <c r="B53" t="s">
         <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D53" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>67</v>
@@ -1802,16 +1822,16 @@
     </row>
     <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>5007</v>
+        <v>5005</v>
       </c>
       <c r="B54" t="s">
         <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D54" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>67</v>
@@ -1819,7 +1839,7 @@
     </row>
     <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>5008</v>
+        <v>5006</v>
       </c>
       <c r="B55" t="s">
         <v>28</v>
@@ -1828,7 +1848,7 @@
         <v>65</v>
       </c>
       <c r="D55" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>67</v>
@@ -1836,16 +1856,16 @@
     </row>
     <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>5009</v>
+        <v>5006</v>
       </c>
       <c r="B56" t="s">
         <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D56" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>67</v>
@@ -1853,16 +1873,16 @@
     </row>
     <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>5009</v>
+        <v>5007</v>
       </c>
       <c r="B57" t="s">
         <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D57" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>67</v>
@@ -1870,16 +1890,16 @@
     </row>
     <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>5010</v>
+        <v>5007</v>
       </c>
       <c r="B58" t="s">
         <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D58" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>67</v>
@@ -1887,7 +1907,7 @@
     </row>
     <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>5010</v>
+        <v>5008</v>
       </c>
       <c r="B59" t="s">
         <v>28</v>
@@ -1896,7 +1916,7 @@
         <v>65</v>
       </c>
       <c r="D59" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>67</v>
@@ -1904,16 +1924,16 @@
     </row>
     <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>5010</v>
+        <v>5009</v>
       </c>
       <c r="B60" t="s">
         <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>67</v>
@@ -1921,16 +1941,16 @@
     </row>
     <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>5011</v>
+        <v>5009</v>
       </c>
       <c r="B61" t="s">
         <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D61" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>67</v>
@@ -1938,16 +1958,16 @@
     </row>
     <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>5012</v>
+        <v>5010</v>
       </c>
       <c r="B62" t="s">
         <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D62" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>67</v>
@@ -1955,7 +1975,7 @@
     </row>
     <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>5012</v>
+        <v>5010</v>
       </c>
       <c r="B63" t="s">
         <v>28</v>
@@ -1964,7 +1984,7 @@
         <v>65</v>
       </c>
       <c r="D63" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>67</v>
@@ -1972,16 +1992,16 @@
     </row>
     <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>5013</v>
+        <v>5010</v>
       </c>
       <c r="B64" t="s">
         <v>28</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D64" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>67</v>
@@ -1989,7 +2009,7 @@
     </row>
     <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>5013</v>
+        <v>5011</v>
       </c>
       <c r="B65" t="s">
         <v>28</v>
@@ -1998,7 +2018,7 @@
         <v>65</v>
       </c>
       <c r="D65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>67</v>
@@ -2006,7 +2026,7 @@
     </row>
     <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>5014</v>
+        <v>5012</v>
       </c>
       <c r="B66" t="s">
         <v>28</v>
@@ -2015,7 +2035,7 @@
         <v>65</v>
       </c>
       <c r="D66" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>67</v>
@@ -2023,7 +2043,7 @@
     </row>
     <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>5015</v>
+        <v>5012</v>
       </c>
       <c r="B67" t="s">
         <v>28</v>
@@ -2032,7 +2052,7 @@
         <v>65</v>
       </c>
       <c r="D67" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>67</v>
@@ -2040,7 +2060,7 @@
     </row>
     <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>5016</v>
+        <v>5013</v>
       </c>
       <c r="B68" t="s">
         <v>28</v>
@@ -2049,7 +2069,7 @@
         <v>65</v>
       </c>
       <c r="D68" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>67</v>
@@ -2057,7 +2077,7 @@
     </row>
     <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>5018</v>
+        <v>5013</v>
       </c>
       <c r="B69" t="s">
         <v>28</v>
@@ -2066,7 +2086,7 @@
         <v>65</v>
       </c>
       <c r="D69" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>67</v>
@@ -2074,7 +2094,7 @@
     </row>
     <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>5019</v>
+        <v>5014</v>
       </c>
       <c r="B70" t="s">
         <v>28</v>
@@ -2083,7 +2103,7 @@
         <v>65</v>
       </c>
       <c r="D70" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>67</v>
@@ -2091,7 +2111,7 @@
     </row>
     <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>5020</v>
+        <v>5015</v>
       </c>
       <c r="B71" t="s">
         <v>28</v>
@@ -2100,7 +2120,7 @@
         <v>65</v>
       </c>
       <c r="D71" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>67</v>
@@ -2108,7 +2128,7 @@
     </row>
     <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>5022</v>
+        <v>5016</v>
       </c>
       <c r="B72" t="s">
         <v>28</v>
@@ -2117,7 +2137,7 @@
         <v>65</v>
       </c>
       <c r="D72" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>67</v>
@@ -2125,7 +2145,7 @@
     </row>
     <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>5023</v>
+        <v>5018</v>
       </c>
       <c r="B73" t="s">
         <v>28</v>
@@ -2134,7 +2154,7 @@
         <v>65</v>
       </c>
       <c r="D73" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>67</v>
@@ -2142,16 +2162,16 @@
     </row>
     <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>5023</v>
+        <v>5019</v>
       </c>
       <c r="B74" t="s">
         <v>28</v>
       </c>
       <c r="C74" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D74" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>67</v>
@@ -2159,16 +2179,16 @@
     </row>
     <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>5024</v>
+        <v>5020</v>
       </c>
       <c r="B75" t="s">
         <v>28</v>
       </c>
       <c r="C75" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D75" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>67</v>
@@ -2176,7 +2196,7 @@
     </row>
     <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>5024</v>
+        <v>5022</v>
       </c>
       <c r="B76" t="s">
         <v>28</v>
@@ -2185,7 +2205,7 @@
         <v>65</v>
       </c>
       <c r="D76" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>67</v>
@@ -2193,16 +2213,16 @@
     </row>
     <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>5025</v>
+        <v>5023</v>
       </c>
       <c r="B77" t="s">
         <v>28</v>
       </c>
       <c r="C77" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D77" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>67</v>
@@ -2210,16 +2230,16 @@
     </row>
     <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>5025</v>
+        <v>5023</v>
       </c>
       <c r="B78" t="s">
         <v>28</v>
       </c>
       <c r="C78" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D78" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>67</v>
@@ -2227,7 +2247,7 @@
     </row>
     <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>5026</v>
+        <v>5024</v>
       </c>
       <c r="B79" t="s">
         <v>28</v>
@@ -2236,7 +2256,7 @@
         <v>69</v>
       </c>
       <c r="D79" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>67</v>
@@ -2244,7 +2264,7 @@
     </row>
     <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>5026</v>
+        <v>5024</v>
       </c>
       <c r="B80" t="s">
         <v>28</v>
@@ -2253,7 +2273,7 @@
         <v>65</v>
       </c>
       <c r="D80" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>67</v>
@@ -2261,7 +2281,7 @@
     </row>
     <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>5027</v>
+        <v>5025</v>
       </c>
       <c r="B81" t="s">
         <v>28</v>
@@ -2270,7 +2290,7 @@
         <v>69</v>
       </c>
       <c r="D81" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>67</v>
@@ -2278,7 +2298,7 @@
     </row>
     <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>5027</v>
+        <v>5025</v>
       </c>
       <c r="B82" t="s">
         <v>28</v>
@@ -2287,7 +2307,7 @@
         <v>65</v>
       </c>
       <c r="D82" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>67</v>
@@ -2295,7 +2315,7 @@
     </row>
     <row r="83" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>5028</v>
+        <v>5026</v>
       </c>
       <c r="B83" t="s">
         <v>28</v>
@@ -2304,7 +2324,7 @@
         <v>69</v>
       </c>
       <c r="D83" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>67</v>
@@ -2312,7 +2332,7 @@
     </row>
     <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>5028</v>
+        <v>5026</v>
       </c>
       <c r="B84" t="s">
         <v>28</v>
@@ -2321,7 +2341,7 @@
         <v>65</v>
       </c>
       <c r="D84" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>67</v>
@@ -2329,7 +2349,7 @@
     </row>
     <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>5029</v>
+        <v>5027</v>
       </c>
       <c r="B85" t="s">
         <v>28</v>
@@ -2338,7 +2358,7 @@
         <v>69</v>
       </c>
       <c r="D85" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>67</v>
@@ -2346,245 +2366,245 @@
     </row>
     <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
+        <v>5027</v>
+      </c>
+      <c r="B86" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" t="s">
+        <v>65</v>
+      </c>
+      <c r="D86" t="s">
+        <v>128</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>5028</v>
+      </c>
+      <c r="B87" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" t="s">
+        <v>69</v>
+      </c>
+      <c r="D87" t="s">
+        <v>129</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>5028</v>
+      </c>
+      <c r="B88" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" t="s">
+        <v>65</v>
+      </c>
+      <c r="D88" t="s">
+        <v>129</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
         <v>5029</v>
       </c>
-      <c r="B86" t="s">
-        <v>28</v>
-      </c>
-      <c r="C86" t="s">
-        <v>65</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="B89" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" t="s">
+        <v>69</v>
+      </c>
+      <c r="D89" t="s">
         <v>130</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="2">
-        <v>5100</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
-        <v>5110</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
-        <v>5120</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>1001</v>
+        <v>5029</v>
       </c>
       <c r="B90" t="s">
         <v>28</v>
       </c>
       <c r="C90" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D90" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>6001</v>
+        <v>5030</v>
       </c>
       <c r="B91" t="s">
         <v>28</v>
       </c>
       <c r="C91" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D91" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
-        <v>6002</v>
-      </c>
-      <c r="B92" t="s">
-        <v>28</v>
-      </c>
-      <c r="C92" t="s">
-        <v>91</v>
-      </c>
-      <c r="D92" t="s">
-        <v>94</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>95</v>
+      <c r="A92" s="3">
+        <v>5030</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>6003</v>
+        <v>5031</v>
       </c>
       <c r="B93" t="s">
         <v>28</v>
       </c>
       <c r="C93" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D93" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="2">
-        <v>6004</v>
-      </c>
-      <c r="B94" t="s">
-        <v>28</v>
-      </c>
-      <c r="C94" t="s">
-        <v>91</v>
-      </c>
-      <c r="D94" t="s">
-        <v>102</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>103</v>
+      <c r="A94" s="3">
+        <v>5031</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>6005</v>
+        <v>5032</v>
       </c>
       <c r="B95" t="s">
         <v>28</v>
       </c>
       <c r="C95" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D95" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="2">
-        <v>7200</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>5032</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>6006</v>
-      </c>
-      <c r="B97" t="s">
-        <v>28</v>
-      </c>
-      <c r="C97" t="s">
-        <v>91</v>
-      </c>
-      <c r="D97" t="s">
-        <v>112</v>
+        <v>5100</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>6007</v>
-      </c>
-      <c r="B98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C98" t="s">
-        <v>91</v>
-      </c>
-      <c r="D98" t="s">
-        <v>114</v>
+        <v>5110</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>6008</v>
-      </c>
-      <c r="B99" t="s">
-        <v>28</v>
-      </c>
-      <c r="C99" t="s">
-        <v>91</v>
-      </c>
-      <c r="D99" t="s">
-        <v>122</v>
+        <v>5120</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>6009</v>
+        <v>6001</v>
       </c>
       <c r="B100" t="s">
         <v>28</v>
@@ -2593,15 +2613,15 @@
         <v>91</v>
       </c>
       <c r="D100" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>6010</v>
+        <v>6002</v>
       </c>
       <c r="B101" t="s">
         <v>28</v>
@@ -2610,15 +2630,15 @@
         <v>91</v>
       </c>
       <c r="D101" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>6011</v>
+        <v>6003</v>
       </c>
       <c r="B102" t="s">
         <v>28</v>
@@ -2627,15 +2647,15 @@
         <v>91</v>
       </c>
       <c r="D102" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>6012</v>
+        <v>6004</v>
       </c>
       <c r="B103" t="s">
         <v>28</v>
@@ -2644,15 +2664,15 @@
         <v>91</v>
       </c>
       <c r="D103" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>6013</v>
+        <v>6005</v>
       </c>
       <c r="B104" t="s">
         <v>28</v>
@@ -2661,15 +2681,15 @@
         <v>91</v>
       </c>
       <c r="D104" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>6014</v>
+        <v>6006</v>
       </c>
       <c r="B105" t="s">
         <v>28</v>
@@ -2678,15 +2698,15 @@
         <v>91</v>
       </c>
       <c r="D105" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>6015</v>
+        <v>6007</v>
       </c>
       <c r="B106" t="s">
         <v>28</v>
@@ -2695,15 +2715,15 @@
         <v>91</v>
       </c>
       <c r="D106" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>6016</v>
+      <c r="A107" s="2">
+        <v>6008</v>
       </c>
       <c r="B107" t="s">
         <v>28</v>
@@ -2711,13 +2731,16 @@
       <c r="C107" t="s">
         <v>91</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>135</v>
+      <c r="D107" t="s">
+        <v>122</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>6017</v>
+      <c r="A108" s="2">
+        <v>6009</v>
       </c>
       <c r="B108" t="s">
         <v>28</v>
@@ -2725,13 +2748,16 @@
       <c r="C108" t="s">
         <v>91</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>143</v>
+      <c r="D108" t="s">
+        <v>96</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>6018</v>
+      <c r="A109" s="2">
+        <v>6010</v>
       </c>
       <c r="B109" t="s">
         <v>28</v>
@@ -2739,13 +2765,16 @@
       <c r="C109" t="s">
         <v>91</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>136</v>
+      <c r="D109" t="s">
+        <v>106</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>6019</v>
+      <c r="A110" s="2">
+        <v>6011</v>
       </c>
       <c r="B110" t="s">
         <v>28</v>
@@ -2753,13 +2782,16 @@
       <c r="C110" t="s">
         <v>91</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>137</v>
+      <c r="D110" t="s">
+        <v>110</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>6020</v>
+      <c r="A111" s="2">
+        <v>6012</v>
       </c>
       <c r="B111" t="s">
         <v>28</v>
@@ -2767,13 +2799,16 @@
       <c r="C111" t="s">
         <v>91</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>146</v>
+      <c r="D111" t="s">
+        <v>100</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>6021</v>
+      <c r="A112" s="2">
+        <v>6013</v>
       </c>
       <c r="B112" t="s">
         <v>28</v>
@@ -2781,13 +2816,16 @@
       <c r="C112" t="s">
         <v>91</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>6022</v>
+      <c r="D112" t="s">
+        <v>118</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>6014</v>
       </c>
       <c r="B113" t="s">
         <v>28</v>
@@ -2795,13 +2833,16 @@
       <c r="C113" t="s">
         <v>91</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>6023</v>
+      <c r="D113" t="s">
+        <v>108</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>6015</v>
       </c>
       <c r="B114" t="s">
         <v>28</v>
@@ -2809,13 +2850,16 @@
       <c r="C114" t="s">
         <v>91</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D114" t="s">
+        <v>120</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>6024</v>
+        <v>6016</v>
       </c>
       <c r="B115" t="s">
         <v>28</v>
@@ -2824,12 +2868,12 @@
         <v>91</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>6025</v>
+        <v>6017</v>
       </c>
       <c r="B116" t="s">
         <v>28</v>
@@ -2838,12 +2882,12 @@
         <v>91</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>6026</v>
+        <v>6018</v>
       </c>
       <c r="B117" t="s">
         <v>28</v>
@@ -2852,27 +2896,162 @@
         <v>91</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="2">
-        <v>6027</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>4</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>6019</v>
+      </c>
+      <c r="B118" t="s">
+        <v>28</v>
       </c>
       <c r="C118" t="s">
         <v>91</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>6020</v>
+      </c>
+      <c r="B119" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119" t="s">
+        <v>91</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>6021</v>
+      </c>
+      <c r="B120" t="s">
+        <v>28</v>
+      </c>
+      <c r="C120" t="s">
+        <v>91</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>6022</v>
+      </c>
+      <c r="B121" t="s">
+        <v>28</v>
+      </c>
+      <c r="C121" t="s">
+        <v>91</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>6023</v>
+      </c>
+      <c r="B122" t="s">
+        <v>28</v>
+      </c>
+      <c r="C122" t="s">
+        <v>91</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E122" s="2"/>
+    </row>
+    <row r="123" spans="1:5" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>6024</v>
+      </c>
+      <c r="B123" t="s">
+        <v>28</v>
+      </c>
+      <c r="C123" t="s">
+        <v>91</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="1:5" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>6025</v>
+      </c>
+      <c r="B124" t="s">
+        <v>28</v>
+      </c>
+      <c r="C124" t="s">
+        <v>91</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125" spans="1:5" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>6026</v>
+      </c>
+      <c r="B125" t="s">
+        <v>28</v>
+      </c>
+      <c r="C125" t="s">
+        <v>91</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126" spans="1:5" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>6027</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" t="s">
+        <v>91</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
+        <v>7200</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:E118" xr:uid="{18C15661-7701-0541-8E04-1A0ED57798EA}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A90:M112">
-    <sortCondition ref="A90:A112"/>
+  <autoFilter ref="A1:E127" xr:uid="{18C15661-7701-0541-8E04-1A0ED57798EA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E128">
+    <sortCondition ref="A2:A128"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
